--- a/firmware/charge.xlsx
+++ b/firmware/charge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\react4\firmware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92F9D33-DF89-48B2-B401-7BEFC9DC5352}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EB6033-F0DA-441E-A9AD-17C0333F4813}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1005" yWindow="-120" windowWidth="27915" windowHeight="16440" xr2:uid="{6E8F0879-3808-498E-81FC-4F912DA31181}"/>
   </bookViews>
@@ -121,7 +121,7 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -130,7 +130,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -146,12 +146,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A4497DA-A478-4AFC-82B5-D49642808C58}" name="Table1" displayName="Table1" ref="D6:G12" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A4497DA-A478-4AFC-82B5-D49642808C58}" name="Table1" displayName="Table1" ref="D6:G12" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="D6:G12" xr:uid="{69B45CC1-3B49-490E-B1CF-6EBA189E5055}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2F640FFD-DF97-4689-8019-A66CC2AB2E25}" name="Note" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2F640FFD-DF97-4689-8019-A66CC2AB2E25}" name="Note" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{C84C3441-E68D-4303-A0F6-1BAF3DD7A18A}" name="Frequency" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{BEACB5BD-9991-4E91-9EFA-D63AEAADAC11}" name="Timer" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{BEACB5BD-9991-4E91-9EFA-D63AEAADAC11}" name="Timer" dataDxfId="0">
       <calculatedColumnFormula>$E$4/E7</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{93F5C744-B405-4ACC-9036-7BABDF3165D4}" name="Duration"/>
@@ -460,7 +460,7 @@
   <dimension ref="D2:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="F7" sqref="F7:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +506,7 @@
         <v>783.99</v>
       </c>
       <c r="F7" s="2">
-        <f>$E$4/E7</f>
+        <f t="shared" ref="F7:F12" si="0">$E$4/E7</f>
         <v>15306.317682623503</v>
       </c>
       <c r="G7">
@@ -521,7 +521,7 @@
         <v>1046.5</v>
       </c>
       <c r="F8" s="2">
-        <f>$E$4/E8</f>
+        <f t="shared" si="0"/>
         <v>11466.794075489728</v>
       </c>
       <c r="G8">
@@ -536,7 +536,7 @@
         <v>1318.5</v>
       </c>
       <c r="F9" s="2">
-        <f>$E$4/E9</f>
+        <f t="shared" si="0"/>
         <v>9101.2514220705343</v>
       </c>
       <c r="G9">
@@ -551,7 +551,7 @@
         <v>1567.98</v>
       </c>
       <c r="F10" s="2">
-        <f>$E$4/E10</f>
+        <f t="shared" si="0"/>
         <v>7653.1588413117515</v>
       </c>
       <c r="G10">
@@ -566,7 +566,7 @@
         <v>1318.5</v>
       </c>
       <c r="F11" s="2">
-        <f>$E$4/E11</f>
+        <f t="shared" si="0"/>
         <v>9101.2514220705343</v>
       </c>
       <c r="G11">
@@ -581,7 +581,7 @@
         <v>1567.98</v>
       </c>
       <c r="F12" s="2">
-        <f>$E$4/E12</f>
+        <f t="shared" si="0"/>
         <v>7653.1588413117515</v>
       </c>
       <c r="G12">
